--- a/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/Ifrs9LoanData.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/Ifrs9LoanData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKLmy\_prog\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA31504F-AE0E-4C94-9440-71EE7C87AF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEA411A-B7B5-44DB-8E78-054246406FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="211">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -983,6 +983,11 @@
   </si>
   <si>
     <t>舊會計科目(8碼)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓取月底日資料，並以天數表示
+2021/12/13長度由3改為4</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1719,8 +1724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2201,7 +2206,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
         <v>16</v>
       </c>
@@ -2215,11 +2220,11 @@
         <v>28</v>
       </c>
       <c r="E24" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="28" t="s">
-        <v>66</v>
+        <v>210</v>
       </c>
       <c r="H24" s="38" t="s">
         <v>180</v>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/Ifrs9LoanData.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/Ifrs9LoanData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L7-介接外部系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEA411A-B7B5-44DB-8E78-054246406FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCF1809-4E56-4B09-885E-6D1427B20B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="213">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -774,13 +774,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1=一般;
-2=分紅;
-3=利變;
-4=OIU</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>逾期繳款天數</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -808,20 +801,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1: 機動;
-2: 固定；
-3: 定期機動；</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1: 按月繳息(按期繳息到期還本)；
-2: 到期取息(到期繳息還本)；
-3: 本息平均法(期金)；
-4: 本金平均法；
-5: 按月撥款收息(逆向貸款)；</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">      --協議
       LEFT JOIN ( SELECT A.*
                   FROM   "AcLoanRenew" A
@@ -988,6 +967,42 @@
   <si>
     <t>抓取月底日資料，並以天數表示
 2021/12/13長度由3改為4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>310:短期擔保放款 
+320:中期擔保放款
+330:長期擔保放款
+340:三十年房貸
+990:催收款項</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:正常戶
+2:催收戶
+3:結案戶
+7:部分轉呆戶</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:按月繳息(按期繳息到期還本)
+2:到期取息(到期繳息還本)
+3:本息平均法(期金)
+4:本金平均法
+5:按月撥款收息(逆向貸款)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:機動
+2:固定
+3:定期機動</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:一般
+2:分紅
+3:利變
+4:OIU</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1724,8 +1739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1749,7 +1764,7 @@
         <v>119</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="21"/>
@@ -1855,7 +1870,7 @@
         <v>9</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -1965,7 +1980,7 @@
       <c r="F13" s="19"/>
       <c r="G13" s="15"/>
       <c r="H13" s="37" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="7" customFormat="1" ht="81" x14ac:dyDescent="0.3">
@@ -1986,10 +2001,10 @@
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="24" t="s">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="H14" s="37" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -2000,7 +2015,7 @@
         <v>121</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>123</v>
@@ -2011,7 +2026,7 @@
       <c r="F15" s="19"/>
       <c r="G15" s="24"/>
       <c r="H15" s="37" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -2019,10 +2034,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>206</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>209</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>37</v>
@@ -2033,7 +2048,7 @@
       <c r="F16" s="19"/>
       <c r="G16" s="24"/>
       <c r="H16" s="37" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="7" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
@@ -2054,10 +2069,10 @@
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="24" t="s">
-        <v>131</v>
+        <v>209</v>
       </c>
       <c r="H17" s="37" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2079,7 +2094,7 @@
       <c r="F18" s="19"/>
       <c r="G18" s="24"/>
       <c r="H18" s="37" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2103,7 +2118,7 @@
         <v>134</v>
       </c>
       <c r="H19" s="37" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2127,7 +2142,7 @@
       </c>
       <c r="G20" s="24"/>
       <c r="H20" s="37" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2135,10 +2150,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>28</v>
@@ -2151,7 +2166,7 @@
       </c>
       <c r="G21" s="24"/>
       <c r="H21" s="37" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2177,7 +2192,7 @@
         <v>61</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2203,7 +2218,7 @@
         <v>99</v>
       </c>
       <c r="H23" s="37" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -2224,10 +2239,10 @@
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="28" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2235,7 +2250,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>68</v>
@@ -2251,7 +2266,7 @@
         <v>69</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2259,7 +2274,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>71</v>
@@ -2275,7 +2290,7 @@
         <v>72</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2301,7 +2316,7 @@
         <v>75</v>
       </c>
       <c r="H27" s="38" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2325,7 +2340,7 @@
       </c>
       <c r="G28" s="24"/>
       <c r="H28" s="37" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="7" customFormat="1" ht="81" x14ac:dyDescent="0.3">
@@ -2346,10 +2361,10 @@
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="24" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="7" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
@@ -2370,10 +2385,10 @@
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="24" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="H30" s="37" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="7" customFormat="1" ht="81" x14ac:dyDescent="0.3">
@@ -2394,10 +2409,10 @@
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H31" s="37" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="7" customFormat="1" ht="81" x14ac:dyDescent="0.3">
@@ -2421,7 +2436,7 @@
         <v>85</v>
       </c>
       <c r="H32" s="37" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2443,7 +2458,7 @@
       <c r="F33" s="19"/>
       <c r="G33" s="24"/>
       <c r="H33" s="37" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2465,7 +2480,7 @@
       <c r="F34" s="19"/>
       <c r="G34" s="24"/>
       <c r="H34" s="37" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2487,7 +2502,7 @@
       <c r="F35" s="19"/>
       <c r="G35" s="24"/>
       <c r="H35" s="37" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2509,7 +2524,7 @@
       <c r="F36" s="19"/>
       <c r="G36" s="24"/>
       <c r="H36" s="37" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="7" customFormat="1" ht="81" x14ac:dyDescent="0.3">
@@ -2530,10 +2545,10 @@
       </c>
       <c r="F37" s="19"/>
       <c r="G37" s="15" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="H37" s="37" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2541,10 +2556,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>31</v>
@@ -2555,7 +2570,7 @@
       <c r="F38" s="19"/>
       <c r="G38" s="24"/>
       <c r="H38" s="37" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -3125,7 +3140,7 @@
     </row>
     <row r="5" spans="1:1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="179.4" x14ac:dyDescent="0.3">
@@ -3135,12 +3150,12 @@
     </row>
     <row r="7" spans="1:1" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
@@ -3173,10 +3188,10 @@
         <v>64</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>165</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>166</v>
       </c>
     </row>
   </sheetData>
